--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mdk-Tspan1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mdk-Tspan1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H2">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I2">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J2">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.310643</v>
+        <v>0.202041</v>
       </c>
       <c r="N2">
-        <v>0.931929</v>
+        <v>0.606123</v>
       </c>
       <c r="O2">
-        <v>0.2129064979124664</v>
+        <v>0.1200922501731177</v>
       </c>
       <c r="P2">
-        <v>0.2129064979124664</v>
+        <v>0.1200922501731177</v>
       </c>
       <c r="Q2">
-        <v>0.3844637883293333</v>
+        <v>0.328171694256</v>
       </c>
       <c r="R2">
-        <v>3.460174094964</v>
+        <v>2.953545248304</v>
       </c>
       <c r="S2">
-        <v>0.008279266320561507</v>
+        <v>0.01028130489327613</v>
       </c>
       <c r="T2">
-        <v>0.008279266320561507</v>
+        <v>0.01028130489327613</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H3">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I3">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J3">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.595566</v>
       </c>
       <c r="O3">
-        <v>0.3645195816936723</v>
+        <v>0.3161323877162237</v>
       </c>
       <c r="P3">
-        <v>0.3645195816936722</v>
+        <v>0.3161323877162237</v>
       </c>
       <c r="Q3">
-        <v>0.658244725606222</v>
+        <v>0.8638833991075553</v>
       </c>
       <c r="R3">
-        <v>5.924202530455999</v>
+        <v>7.774950591967998</v>
       </c>
       <c r="S3">
-        <v>0.01417502389777874</v>
+        <v>0.0270646395588767</v>
       </c>
       <c r="T3">
-        <v>0.01417502389777874</v>
+        <v>0.02706463955887669</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,51 +667,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H4">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I4">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J4">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.61656</v>
+        <v>0.4918713333333333</v>
       </c>
       <c r="N4">
-        <v>1.84968</v>
+        <v>1.475614</v>
       </c>
       <c r="O4">
-        <v>0.4225739203938614</v>
+        <v>0.2923660802295159</v>
       </c>
       <c r="P4">
-        <v>0.4225739203938613</v>
+        <v>0.2923660802295159</v>
       </c>
       <c r="Q4">
-        <v>0.7630784963199999</v>
+        <v>0.7989380809635555</v>
       </c>
       <c r="R4">
-        <v>6.86770646688</v>
+        <v>7.190442728671999</v>
       </c>
       <c r="S4">
-        <v>0.01643257515091408</v>
+        <v>0.02502996493910769</v>
       </c>
       <c r="T4">
-        <v>0.01643257515091408</v>
+        <v>0.02502996493910768</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.644449</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H5">
-        <v>10.933347</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I5">
-        <v>0.1145093486694395</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J5">
-        <v>0.1145093486694395</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.310643</v>
+        <v>0.3584516666666667</v>
       </c>
       <c r="N5">
-        <v>0.931929</v>
+        <v>1.075355</v>
       </c>
       <c r="O5">
-        <v>0.2129064979124664</v>
+        <v>0.2130620380432899</v>
       </c>
       <c r="P5">
-        <v>0.2129064979124664</v>
+        <v>0.2130620380432898</v>
       </c>
       <c r="Q5">
-        <v>1.132122570707</v>
+        <v>0.5822268290044444</v>
       </c>
       <c r="R5">
-        <v>10.189103136363</v>
+        <v>5.24004146104</v>
       </c>
       <c r="S5">
-        <v>0.02437978440344792</v>
+        <v>0.01824060895809754</v>
       </c>
       <c r="T5">
-        <v>0.02437978440344791</v>
+        <v>0.01824060895809754</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.644449</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H6">
-        <v>10.933347</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I6">
-        <v>0.1145093486694395</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J6">
-        <v>0.1145093486694395</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.5318553333333332</v>
+        <v>0.09816233333333334</v>
       </c>
       <c r="N6">
-        <v>1.595566</v>
+        <v>0.294487</v>
       </c>
       <c r="O6">
-        <v>0.3645195816936723</v>
+        <v>0.0583472438378529</v>
       </c>
       <c r="P6">
-        <v>0.3645195816936722</v>
+        <v>0.05834724383785288</v>
       </c>
       <c r="Q6">
-        <v>1.938319637711333</v>
+        <v>0.1594433765528889</v>
       </c>
       <c r="R6">
-        <v>17.444876739402</v>
+        <v>1.434990388976</v>
       </c>
       <c r="S6">
-        <v>0.04174089987699896</v>
+        <v>0.004995208289581832</v>
       </c>
       <c r="T6">
-        <v>0.04174089987699896</v>
+        <v>0.004995208289581829</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>10.933347</v>
       </c>
       <c r="I7">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J7">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.61656</v>
+        <v>0.202041</v>
       </c>
       <c r="N7">
-        <v>1.84968</v>
+        <v>0.606123</v>
       </c>
       <c r="O7">
-        <v>0.4225739203938614</v>
+        <v>0.1200922501731177</v>
       </c>
       <c r="P7">
-        <v>0.4225739203938613</v>
+        <v>0.1200922501731177</v>
       </c>
       <c r="Q7">
-        <v>2.24702147544</v>
+        <v>0.7363281204090001</v>
       </c>
       <c r="R7">
-        <v>20.22319327896</v>
+        <v>6.626953083681</v>
       </c>
       <c r="S7">
-        <v>0.04838866438899266</v>
+        <v>0.02306845483606013</v>
       </c>
       <c r="T7">
-        <v>0.04838866438899265</v>
+        <v>0.02306845483606013</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1.671495666666667</v>
+        <v>3.644449</v>
       </c>
       <c r="H8">
-        <v>5.014487000000001</v>
+        <v>10.933347</v>
       </c>
       <c r="I8">
-        <v>0.05251874291389196</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J8">
-        <v>0.05251874291389196</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.310643</v>
+        <v>0.5318553333333332</v>
       </c>
       <c r="N8">
-        <v>0.931929</v>
+        <v>1.595566</v>
       </c>
       <c r="O8">
-        <v>0.2129064979124664</v>
+        <v>0.3161323877162237</v>
       </c>
       <c r="P8">
-        <v>0.2129064979124664</v>
+        <v>0.3161323877162237</v>
       </c>
       <c r="Q8">
-        <v>0.5192384283803334</v>
+        <v>1.938319637711333</v>
       </c>
       <c r="R8">
-        <v>4.673145855423001</v>
+        <v>17.444876739402</v>
       </c>
       <c r="S8">
-        <v>0.0111815816285619</v>
+        <v>0.06072569793417031</v>
       </c>
       <c r="T8">
-        <v>0.01118158162856189</v>
+        <v>0.0607256979341703</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.644449</v>
+      </c>
+      <c r="H9">
+        <v>10.933347</v>
+      </c>
+      <c r="I9">
+        <v>0.1920894545885022</v>
+      </c>
+      <c r="J9">
+        <v>0.1920894545885022</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="L9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G9">
-        <v>1.671495666666667</v>
-      </c>
-      <c r="H9">
-        <v>5.014487000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.05251874291389196</v>
-      </c>
-      <c r="J9">
-        <v>0.05251874291389196</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>0.5318553333333332</v>
+        <v>0.4918713333333333</v>
       </c>
       <c r="N9">
-        <v>1.595566</v>
+        <v>1.475614</v>
       </c>
       <c r="O9">
-        <v>0.3645195816936723</v>
+        <v>0.2923660802295159</v>
       </c>
       <c r="P9">
-        <v>0.3645195816936722</v>
+        <v>0.2923660802295159</v>
       </c>
       <c r="Q9">
-        <v>0.8889938849602222</v>
+        <v>1.792599988895333</v>
       </c>
       <c r="R9">
-        <v>8.000944964642001</v>
+        <v>16.133399900058</v>
       </c>
       <c r="S9">
-        <v>0.01914411019804941</v>
+        <v>0.05616044089146598</v>
       </c>
       <c r="T9">
-        <v>0.01914411019804941</v>
+        <v>0.05616044089146597</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.671495666666667</v>
+        <v>3.644449</v>
       </c>
       <c r="H10">
-        <v>5.014487000000001</v>
+        <v>10.933347</v>
       </c>
       <c r="I10">
-        <v>0.05251874291389196</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J10">
-        <v>0.05251874291389196</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.61656</v>
+        <v>0.3584516666666667</v>
       </c>
       <c r="N10">
-        <v>1.84968</v>
+        <v>1.075355</v>
       </c>
       <c r="O10">
-        <v>0.4225739203938614</v>
+        <v>0.2130620380432899</v>
       </c>
       <c r="P10">
-        <v>0.4225739203938613</v>
+        <v>0.2130620380432898</v>
       </c>
       <c r="Q10">
-        <v>1.03057736824</v>
+        <v>1.306358818131667</v>
       </c>
       <c r="R10">
-        <v>9.275196314160002</v>
+        <v>11.757229363185</v>
       </c>
       <c r="S10">
-        <v>0.02219305108728065</v>
+        <v>0.04092697068125024</v>
       </c>
       <c r="T10">
-        <v>0.02219305108728065</v>
+        <v>0.04092697068125024</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.32861766666667</v>
+        <v>3.644449</v>
       </c>
       <c r="H11">
-        <v>54.985853</v>
+        <v>10.933347</v>
       </c>
       <c r="I11">
-        <v>0.5758889947482273</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J11">
-        <v>0.5758889947482273</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.310643</v>
+        <v>0.09816233333333334</v>
       </c>
       <c r="N11">
-        <v>0.931929</v>
+        <v>0.294487</v>
       </c>
       <c r="O11">
-        <v>0.2129064979124664</v>
+        <v>0.0583472438378529</v>
       </c>
       <c r="P11">
-        <v>0.2129064979124664</v>
+        <v>0.05834724383785288</v>
       </c>
       <c r="Q11">
-        <v>5.693656777826333</v>
+        <v>0.3577476175543334</v>
       </c>
       <c r="R11">
-        <v>51.242911000437</v>
+        <v>3.219728557989</v>
       </c>
       <c r="S11">
-        <v>0.1226105090581758</v>
+        <v>0.01120789024555551</v>
       </c>
       <c r="T11">
-        <v>0.1226105090581758</v>
+        <v>0.0112078902455555</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.32861766666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H12">
-        <v>54.985853</v>
+        <v>8.22472</v>
       </c>
       <c r="I12">
-        <v>0.5758889947482273</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J12">
-        <v>0.5758889947482273</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.5318553333333332</v>
+        <v>0.202041</v>
       </c>
       <c r="N12">
-        <v>1.595566</v>
+        <v>0.606123</v>
       </c>
       <c r="O12">
-        <v>0.3645195816936723</v>
+        <v>0.1200922501731177</v>
       </c>
       <c r="P12">
-        <v>0.3645195816936722</v>
+        <v>0.1200922501731177</v>
       </c>
       <c r="Q12">
-        <v>9.74817305864422</v>
+        <v>0.5539102178399999</v>
       </c>
       <c r="R12">
-        <v>87.73355752779798</v>
+        <v>4.98519196056</v>
       </c>
       <c r="S12">
-        <v>0.2099228154676132</v>
+        <v>0.01735347664893837</v>
       </c>
       <c r="T12">
-        <v>0.2099228154676132</v>
+        <v>0.01735347664893837</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.32861766666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H13">
-        <v>54.985853</v>
+        <v>8.22472</v>
       </c>
       <c r="I13">
-        <v>0.5758889947482273</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J13">
-        <v>0.5758889947482273</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.61656</v>
+        <v>0.5318553333333332</v>
       </c>
       <c r="N13">
-        <v>1.84968</v>
+        <v>1.595566</v>
       </c>
       <c r="O13">
-        <v>0.4225739203938614</v>
+        <v>0.3161323877162237</v>
       </c>
       <c r="P13">
-        <v>0.4225739203938613</v>
+        <v>0.3161323877162237</v>
       </c>
       <c r="Q13">
-        <v>11.30069250856</v>
+        <v>1.458120399057777</v>
       </c>
       <c r="R13">
-        <v>101.70623257704</v>
+        <v>13.12308359152</v>
       </c>
       <c r="S13">
-        <v>0.2433556702224383</v>
+        <v>0.04568151567064772</v>
       </c>
       <c r="T13">
-        <v>0.2433556702224382</v>
+        <v>0.0456815156706477</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.637834666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H14">
-        <v>13.913504</v>
+        <v>8.22472</v>
       </c>
       <c r="I14">
-        <v>0.1457217337700561</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J14">
-        <v>0.1457217337700561</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,43 +1305,43 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.310643</v>
+        <v>0.4918713333333333</v>
       </c>
       <c r="N14">
-        <v>0.931929</v>
+        <v>1.475614</v>
       </c>
       <c r="O14">
-        <v>0.2129064979124664</v>
+        <v>0.2923660802295159</v>
       </c>
       <c r="P14">
-        <v>0.2129064979124664</v>
+        <v>0.2923660802295159</v>
       </c>
       <c r="Q14">
-        <v>1.440710874357333</v>
+        <v>1.348501330897778</v>
       </c>
       <c r="R14">
-        <v>12.966397869216</v>
+        <v>12.13651197808</v>
       </c>
       <c r="S14">
-        <v>0.03102510400671543</v>
+        <v>0.04224725524661917</v>
       </c>
       <c r="T14">
-        <v>0.03102510400671542</v>
+        <v>0.04224725524661917</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1349,51 +1349,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.637834666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H15">
-        <v>13.913504</v>
+        <v>8.22472</v>
       </c>
       <c r="I15">
-        <v>0.1457217337700561</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J15">
-        <v>0.1457217337700561</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.5318553333333332</v>
+        <v>0.3584516666666667</v>
       </c>
       <c r="N15">
-        <v>1.595566</v>
+        <v>1.075355</v>
       </c>
       <c r="O15">
-        <v>0.3645195816936723</v>
+        <v>0.2130620380432899</v>
       </c>
       <c r="P15">
-        <v>0.3645195816936722</v>
+        <v>0.2130620380432898</v>
       </c>
       <c r="Q15">
-        <v>2.466657102584888</v>
+        <v>0.9827215306222222</v>
       </c>
       <c r="R15">
-        <v>22.199913923264</v>
+        <v>8.8444937756</v>
       </c>
       <c r="S15">
-        <v>0.05311842543753751</v>
+        <v>0.03078772440877368</v>
       </c>
       <c r="T15">
-        <v>0.0531184254375375</v>
+        <v>0.03078772440877367</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.637834666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H16">
-        <v>13.913504</v>
+        <v>8.22472</v>
       </c>
       <c r="I16">
-        <v>0.1457217337700561</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J16">
-        <v>0.1457217337700561</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.61656</v>
+        <v>0.09816233333333334</v>
       </c>
       <c r="N16">
-        <v>1.84968</v>
+        <v>0.294487</v>
       </c>
       <c r="O16">
-        <v>0.4225739203938614</v>
+        <v>0.0583472438378529</v>
       </c>
       <c r="P16">
-        <v>0.4225739203938613</v>
+        <v>0.05834724383785288</v>
       </c>
       <c r="Q16">
-        <v>2.85950334208</v>
+        <v>0.2691192354044444</v>
       </c>
       <c r="R16">
-        <v>25.73553007872</v>
+        <v>2.42207311864</v>
       </c>
       <c r="S16">
-        <v>0.06157820432580313</v>
+        <v>0.008431247911588764</v>
       </c>
       <c r="T16">
-        <v>0.06157820432580313</v>
+        <v>0.00843124791158876</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,57 +1467,57 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>2.306614666666666</v>
+        <v>2.34427</v>
       </c>
       <c r="H17">
-        <v>6.919843999999999</v>
+        <v>7.03281</v>
       </c>
       <c r="I17">
-        <v>0.07247431452913082</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J17">
-        <v>0.07247431452913082</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.310643</v>
+        <v>0.202041</v>
       </c>
       <c r="N17">
-        <v>0.931929</v>
+        <v>0.606123</v>
       </c>
       <c r="O17">
-        <v>0.2129064979124664</v>
+        <v>0.1200922501731177</v>
       </c>
       <c r="P17">
-        <v>0.2129064979124664</v>
+        <v>0.1200922501731177</v>
       </c>
       <c r="Q17">
-        <v>0.7165336998973333</v>
+        <v>0.47363865507</v>
       </c>
       <c r="R17">
-        <v>6.448803299075999</v>
+        <v>4.26274789563</v>
       </c>
       <c r="S17">
-        <v>0.01543025249500382</v>
+        <v>0.01483864546287537</v>
       </c>
       <c r="T17">
-        <v>0.01543025249500382</v>
+        <v>0.01483864546287537</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>2.306614666666666</v>
+        <v>2.34427</v>
       </c>
       <c r="H18">
-        <v>6.919843999999999</v>
+        <v>7.03281</v>
       </c>
       <c r="I18">
-        <v>0.07247431452913082</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J18">
-        <v>0.07247431452913082</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,27 +1559,27 @@
         <v>1.595566</v>
       </c>
       <c r="O18">
-        <v>0.3645195816936723</v>
+        <v>0.3161323877162237</v>
       </c>
       <c r="P18">
-        <v>0.3645195816936722</v>
+        <v>0.3161323877162237</v>
       </c>
       <c r="Q18">
-        <v>1.226785312411555</v>
+        <v>1.246812502273333</v>
       </c>
       <c r="R18">
-        <v>11.041067811704</v>
+        <v>11.22131252046</v>
       </c>
       <c r="S18">
-        <v>0.0264183068156944</v>
+        <v>0.03906144163250396</v>
       </c>
       <c r="T18">
-        <v>0.0264183068156944</v>
+        <v>0.03906144163250395</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,52 +1591,796 @@
         <v>23</v>
       </c>
       <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.34427</v>
+      </c>
+      <c r="H19">
+        <v>7.03281</v>
+      </c>
+      <c r="I19">
+        <v>0.1235603916279767</v>
+      </c>
+      <c r="J19">
+        <v>0.1235603916279767</v>
+      </c>
+      <c r="K19">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="L19">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G19">
-        <v>2.306614666666666</v>
-      </c>
-      <c r="H19">
-        <v>6.919843999999999</v>
-      </c>
-      <c r="I19">
-        <v>0.07247431452913082</v>
-      </c>
-      <c r="J19">
-        <v>0.07247431452913082</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
       <c r="M19">
-        <v>0.61656</v>
+        <v>0.4918713333333333</v>
       </c>
       <c r="N19">
-        <v>1.84968</v>
+        <v>1.475614</v>
       </c>
       <c r="O19">
-        <v>0.4225739203938614</v>
+        <v>0.2923660802295159</v>
       </c>
       <c r="P19">
-        <v>0.4225739203938613</v>
+        <v>0.2923660802295159</v>
       </c>
       <c r="Q19">
-        <v>1.42216633888</v>
+        <v>1.153079210593333</v>
       </c>
       <c r="R19">
-        <v>12.79949704992</v>
+        <v>10.37771289534</v>
       </c>
       <c r="S19">
-        <v>0.0306257552184326</v>
+        <v>0.03612486737189544</v>
       </c>
       <c r="T19">
-        <v>0.0306257552184326</v>
+        <v>0.03612486737189543</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.34427</v>
+      </c>
+      <c r="H20">
+        <v>7.03281</v>
+      </c>
+      <c r="I20">
+        <v>0.1235603916279767</v>
+      </c>
+      <c r="J20">
+        <v>0.1235603916279767</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.3584516666666667</v>
+      </c>
+      <c r="N20">
+        <v>1.075355</v>
+      </c>
+      <c r="O20">
+        <v>0.2130620380432899</v>
+      </c>
+      <c r="P20">
+        <v>0.2130620380432898</v>
+      </c>
+      <c r="Q20">
+        <v>0.8403074886166666</v>
+      </c>
+      <c r="R20">
+        <v>7.56276739755</v>
+      </c>
+      <c r="S20">
+        <v>0.02632602886168376</v>
+      </c>
+      <c r="T20">
+        <v>0.02632602886168375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.34427</v>
+      </c>
+      <c r="H21">
+        <v>7.03281</v>
+      </c>
+      <c r="I21">
+        <v>0.1235603916279767</v>
+      </c>
+      <c r="J21">
+        <v>0.1235603916279767</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.09816233333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.294487</v>
+      </c>
+      <c r="O21">
+        <v>0.0583472438378529</v>
+      </c>
+      <c r="P21">
+        <v>0.05834724383785288</v>
+      </c>
+      <c r="Q21">
+        <v>0.2301190131633333</v>
+      </c>
+      <c r="R21">
+        <v>2.07107111847</v>
+      </c>
+      <c r="S21">
+        <v>0.007209408299018152</v>
+      </c>
+      <c r="T21">
+        <v>0.007209408299018149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4.282534999999999</v>
+      </c>
+      <c r="H22">
+        <v>12.847605</v>
+      </c>
+      <c r="I22">
+        <v>0.225721312715906</v>
+      </c>
+      <c r="J22">
+        <v>0.225721312715906</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.202041</v>
+      </c>
+      <c r="N22">
+        <v>0.606123</v>
+      </c>
+      <c r="O22">
+        <v>0.1200922501731177</v>
+      </c>
+      <c r="P22">
+        <v>0.1200922501731177</v>
+      </c>
+      <c r="Q22">
+        <v>0.8652476539349998</v>
+      </c>
+      <c r="R22">
+        <v>7.787228885414998</v>
+      </c>
+      <c r="S22">
+        <v>0.02710738035608311</v>
+      </c>
+      <c r="T22">
+        <v>0.02710738035608311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4.282534999999999</v>
+      </c>
+      <c r="H23">
+        <v>12.847605</v>
+      </c>
+      <c r="I23">
+        <v>0.225721312715906</v>
+      </c>
+      <c r="J23">
+        <v>0.225721312715906</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.5318553333333332</v>
+      </c>
+      <c r="N23">
+        <v>1.595566</v>
+      </c>
+      <c r="O23">
+        <v>0.3161323877162237</v>
+      </c>
+      <c r="P23">
+        <v>0.3161323877162237</v>
+      </c>
+      <c r="Q23">
+        <v>2.277689079936666</v>
+      </c>
+      <c r="R23">
+        <v>20.49920171942999</v>
+      </c>
+      <c r="S23">
+        <v>0.07135781754731978</v>
+      </c>
+      <c r="T23">
+        <v>0.07135781754731976</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4.282534999999999</v>
+      </c>
+      <c r="H24">
+        <v>12.847605</v>
+      </c>
+      <c r="I24">
+        <v>0.225721312715906</v>
+      </c>
+      <c r="J24">
+        <v>0.225721312715906</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.4918713333333333</v>
+      </c>
+      <c r="N24">
+        <v>1.475614</v>
+      </c>
+      <c r="O24">
+        <v>0.2923660802295159</v>
+      </c>
+      <c r="P24">
+        <v>0.2923660802295159</v>
+      </c>
+      <c r="Q24">
+        <v>2.106456200496666</v>
+      </c>
+      <c r="R24">
+        <v>18.95810580447</v>
+      </c>
+      <c r="S24">
+        <v>0.06599325542301022</v>
+      </c>
+      <c r="T24">
+        <v>0.06599325542301022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4.282534999999999</v>
+      </c>
+      <c r="H25">
+        <v>12.847605</v>
+      </c>
+      <c r="I25">
+        <v>0.225721312715906</v>
+      </c>
+      <c r="J25">
+        <v>0.225721312715906</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.3584516666666667</v>
+      </c>
+      <c r="N25">
+        <v>1.075355</v>
+      </c>
+      <c r="O25">
+        <v>0.2130620380432899</v>
+      </c>
+      <c r="P25">
+        <v>0.2130620380432898</v>
+      </c>
+      <c r="Q25">
+        <v>1.535081808308333</v>
+      </c>
+      <c r="R25">
+        <v>13.815736274775</v>
+      </c>
+      <c r="S25">
+        <v>0.04809264291705769</v>
+      </c>
+      <c r="T25">
+        <v>0.04809264291705768</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.282534999999999</v>
+      </c>
+      <c r="H26">
+        <v>12.847605</v>
+      </c>
+      <c r="I26">
+        <v>0.225721312715906</v>
+      </c>
+      <c r="J26">
+        <v>0.225721312715906</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.09816233333333334</v>
+      </c>
+      <c r="N26">
+        <v>0.294487</v>
+      </c>
+      <c r="O26">
+        <v>0.0583472438378529</v>
+      </c>
+      <c r="P26">
+        <v>0.05834724383785288</v>
+      </c>
+      <c r="Q26">
+        <v>0.4203836281816666</v>
+      </c>
+      <c r="R26">
+        <v>3.783452653634999</v>
+      </c>
+      <c r="S26">
+        <v>0.01317021647243521</v>
+      </c>
+      <c r="T26">
+        <v>0.01317021647243521</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>4.335555666666667</v>
+      </c>
+      <c r="H27">
+        <v>13.006667</v>
+      </c>
+      <c r="I27">
+        <v>0.2285158945421077</v>
+      </c>
+      <c r="J27">
+        <v>0.2285158945421077</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.202041</v>
+      </c>
+      <c r="N27">
+        <v>0.606123</v>
+      </c>
+      <c r="O27">
+        <v>0.1200922501731177</v>
+      </c>
+      <c r="P27">
+        <v>0.1200922501731177</v>
+      </c>
+      <c r="Q27">
+        <v>0.8759600024490001</v>
+      </c>
+      <c r="R27">
+        <v>7.883640022041</v>
+      </c>
+      <c r="S27">
+        <v>0.02744298797588458</v>
+      </c>
+      <c r="T27">
+        <v>0.02744298797588457</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>4.335555666666667</v>
+      </c>
+      <c r="H28">
+        <v>13.006667</v>
+      </c>
+      <c r="I28">
+        <v>0.2285158945421077</v>
+      </c>
+      <c r="J28">
+        <v>0.2285158945421077</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.5318553333333332</v>
+      </c>
+      <c r="N28">
+        <v>1.595566</v>
+      </c>
+      <c r="O28">
+        <v>0.3161323877162237</v>
+      </c>
+      <c r="P28">
+        <v>0.3161323877162237</v>
+      </c>
+      <c r="Q28">
+        <v>2.305888404280222</v>
+      </c>
+      <c r="R28">
+        <v>20.752995638522</v>
+      </c>
+      <c r="S28">
+        <v>0.07224127537270529</v>
+      </c>
+      <c r="T28">
+        <v>0.07224127537270526</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>4.335555666666667</v>
+      </c>
+      <c r="H29">
+        <v>13.006667</v>
+      </c>
+      <c r="I29">
+        <v>0.2285158945421077</v>
+      </c>
+      <c r="J29">
+        <v>0.2285158945421077</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.4918713333333333</v>
+      </c>
+      <c r="N29">
+        <v>1.475614</v>
+      </c>
+      <c r="O29">
+        <v>0.2923660802295159</v>
+      </c>
+      <c r="P29">
+        <v>0.2923660802295159</v>
+      </c>
+      <c r="Q29">
+        <v>2.132535546504222</v>
+      </c>
+      <c r="R29">
+        <v>19.192819918538</v>
+      </c>
+      <c r="S29">
+        <v>0.06681029635741746</v>
+      </c>
+      <c r="T29">
+        <v>0.06681029635741745</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>4.335555666666667</v>
+      </c>
+      <c r="H30">
+        <v>13.006667</v>
+      </c>
+      <c r="I30">
+        <v>0.2285158945421077</v>
+      </c>
+      <c r="J30">
+        <v>0.2285158945421077</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.3584516666666667</v>
+      </c>
+      <c r="N30">
+        <v>1.075355</v>
+      </c>
+      <c r="O30">
+        <v>0.2130620380432899</v>
+      </c>
+      <c r="P30">
+        <v>0.2130620380432898</v>
+      </c>
+      <c r="Q30">
+        <v>1.554087154642778</v>
+      </c>
+      <c r="R30">
+        <v>13.986784391785</v>
+      </c>
+      <c r="S30">
+        <v>0.04868806221642696</v>
+      </c>
+      <c r="T30">
+        <v>0.04868806221642696</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>4.335555666666667</v>
+      </c>
+      <c r="H31">
+        <v>13.006667</v>
+      </c>
+      <c r="I31">
+        <v>0.2285158945421077</v>
+      </c>
+      <c r="J31">
+        <v>0.2285158945421077</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.09816233333333334</v>
+      </c>
+      <c r="N31">
+        <v>0.294487</v>
+      </c>
+      <c r="O31">
+        <v>0.0583472438378529</v>
+      </c>
+      <c r="P31">
+        <v>0.05834724383785288</v>
+      </c>
+      <c r="Q31">
+        <v>0.4255882605365556</v>
+      </c>
+      <c r="R31">
+        <v>3.830294344829</v>
+      </c>
+      <c r="S31">
+        <v>0.01333327261967344</v>
+      </c>
+      <c r="T31">
+        <v>0.01333327261967343</v>
       </c>
     </row>
   </sheetData>
